--- a/SmartKitchen-Emdebbed System/Documents/Parts and needs/Farnel-list.xlsx
+++ b/SmartKitchen-Emdebbed System/Documents/Parts and needs/Farnel-list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\AP\Finland\Project Smart Fridge\Smart-Fridge\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\Smart-Fridge-OAMK\SmartKitchen-Emdebbed System\Documents\Parts and needs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
-  <si>
-    <t>Estimated needs:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>ID:</t>
   </si>
@@ -35,9 +32,6 @@
     <t>Subject/Component:</t>
   </si>
   <si>
-    <t>Hardware:</t>
-  </si>
-  <si>
     <t>≈Price pp:</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>To indicate  foods</t>
   </si>
   <si>
-    <t>≈ 7 pieces</t>
-  </si>
-  <si>
     <t>RGB-ledstrips or RGB-SMD-Power-LEDS</t>
   </si>
   <si>
@@ -131,9 +122,6 @@
     <t>OAMK</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>http://www.dx.com/p/robox-arduino-ir-body-infrared-sensor-module-white-green-144209#.VOWh7fmG8nM</t>
   </si>
   <si>
@@ -147,6 +135,177 @@
   </si>
   <si>
     <t>http://be.farnell.com/texas-instruments/lm335m-nopb/ic-temp-sensor-5v-smd/dp/1469229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM3940 1-A  Regulator for 5-V to 3.3-V </t>
+  </si>
+  <si>
+    <t>Vcc for SC16IS750</t>
+  </si>
+  <si>
+    <t>Short female-female flatcable 4W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecting leds </t>
+  </si>
+  <si>
+    <t>3 way dipswitches</t>
+  </si>
+  <si>
+    <t>adressing for leds</t>
+  </si>
+  <si>
+    <t>http://nl.farnell.com/omron-electronic-components/a6s3102h/switch-dip-3-way-sealed/dp/1960896</t>
+  </si>
+  <si>
+    <t>Ledstrip connector</t>
+  </si>
+  <si>
+    <t>to connect strip to board</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/phoenix-contact/ptf-0-3-4-wb-1-8-h/plug-in-connector-pcb-4way-w-wires/dp/2365432?ost=ledstrip&amp;categoryId=700000005017</t>
+  </si>
+  <si>
+    <t>To connect devices/modules</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/pro-power/htc4039-1/cable-flat-7x2-46mm-white-100m/dp/1643747</t>
+  </si>
+  <si>
+    <t>Capacitors 4µ7 16V</t>
+  </si>
+  <si>
+    <t>Current peaks</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/panasonic-electronic-components/eee1ca4r7nr/cap-alu-elec-4-7uf-16v-smd/dp/2326125</t>
+  </si>
+  <si>
+    <t>PCF8574A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2C addressing </t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/texas-instruments/pcf8574adwr/i-o-expander-8bit-100khz-soic/dp/2407150</t>
+  </si>
+  <si>
+    <t>Lower header (7mm instead of 8,5mm) 10-pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To connect NFC-reader </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD dipswitches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for addressing </t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/omron-electronic-components/a6s3102h/switch-dip-3-way-sealed/dp/1960896</t>
+  </si>
+  <si>
+    <t>5mm Red LED</t>
+  </si>
+  <si>
+    <t>Power indication</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/kingbright/l-57iid/led-bi-polar-5mm-red/dp/2217953</t>
+  </si>
+  <si>
+    <t>5mm Yellow LED</t>
+  </si>
+  <si>
+    <t>Reader indicaton</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/kingbright/l-57yyd/led-bi-polar-5mm-yellow/dp/2217955</t>
+  </si>
+  <si>
+    <t>Sockets 6wire</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/molex/95009-7661/socket-fcc-68-6way-6contact/dp/2076092</t>
+  </si>
+  <si>
+    <t>Power connector</t>
+  </si>
+  <si>
+    <t>To give the system power</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/lumberg/1613-18/socket-dc-power-12v-1a/dp/1308873</t>
+  </si>
+  <si>
+    <t>Interference capacitors 100nF</t>
+  </si>
+  <si>
+    <t>interference over 5V-lines</t>
+  </si>
+  <si>
+    <t>http://fi.farnell.com/kemet/c0603c104k8ractu/cap-mlcc-x7r-100nf-10v-0603/dp/2112833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen or Tablet </t>
+  </si>
+  <si>
+    <t>GUI on fridge</t>
+  </si>
+  <si>
+    <t>Controlling fridge</t>
+  </si>
+  <si>
+    <t>To indicate needed foods</t>
+  </si>
+  <si>
+    <t>Compennts custom-Arduino-shield</t>
+  </si>
+  <si>
+    <t>RGB driver,TIP31, expierence,...</t>
+  </si>
+  <si>
+    <t>https://www.dfrobot.com/index.php?route=product/product&amp;product_id=1032</t>
+  </si>
+  <si>
+    <t>HC-SR04</t>
+  </si>
+  <si>
+    <t>Temprature-sensor</t>
+  </si>
+  <si>
+    <t>NFC-stickers</t>
+  </si>
+  <si>
+    <t>To identify ingredients</t>
+  </si>
+  <si>
+    <t>http://www.dx.com/p/000142-nfc-tag-smart-electronic-high-frequency-tag-silver-298982#.VNd9svmG8nM</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>RGB-ledstrips</t>
+  </si>
+  <si>
+    <t>NFC-readers</t>
+  </si>
+  <si>
+    <t>OAMK (Web-application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatcable 6 wire / meter </t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To read products </t>
+  </si>
+  <si>
+    <t>Component list:</t>
   </si>
 </sst>
 </file>
@@ -156,18 +315,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€-813]\ * #,##0.00_ ;_ [$€-813]\ * \-#,##0.00_ ;_ [$€-813]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,14 +347,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,18 +363,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -289,6 +428,37 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -302,19 +472,15 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -325,37 +491,29 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -367,269 +525,74 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$€-813]\ * #,##0.00_ ;_ [$€-813]\ * \-#,##0.00_ ;_ [$€-813]\ * &quot;-&quot;??_ ;_ @_ "/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_ [$€-813]\ * #,##0.00_ ;_ [$€-813]\ * \-#,##0.00_ ;_ [$€-813]\ * &quot;-&quot;??_ ;_ @_ "/>
@@ -711,6 +674,22 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -725,8 +704,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="13">
-  <autoFilter ref="A2:F14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:F36" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
+  <autoFilter ref="A2:F36">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -735,12 +714,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID:" dataDxfId="6" totalsRowDxfId="12"/>
-    <tableColumn id="2" name="Subject/Component:" dataDxfId="5" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Use/Part:" dataDxfId="4" totalsRowDxfId="10"/>
-    <tableColumn id="7" name="Quantity" dataDxfId="3" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Shop/Example/Info:" dataDxfId="2" totalsRowDxfId="8"/>
-    <tableColumn id="5" name="≈Price pp:" dataDxfId="1" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="ID:" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Subject/Component:" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Use/Part:" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Quantity" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Shop/Example/Info:" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="≈Price pp:" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1012,10 +991,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="A1:F14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,154 +1002,164 @@
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="13">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="F7" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="13">
-        <v>45</v>
+      <c r="F8" s="3">
+        <v>5.39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>6</v>
+      <c r="A9" s="2">
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -1179,134 +1168,594 @@
         <v>25</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="13">
-        <v>5.39</v>
+      <c r="F9" s="3">
+        <v>1.74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="1">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="D10" s="1">
-        <v>17</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="6">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="F10" s="13">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="B31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
         <v>33</v>
       </c>
-      <c r="D11" s="1">
-        <v>12</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>9</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25">
-        <v>1</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
-        <v>11</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="29">
-        <v>1</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="31">
-        <v>3</v>
-      </c>
+      <c r="B35" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="18">
+        <f>SUBTOTAL(109,D3:D35)</f>
+        <v>314</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="16">
+        <f>SUBTOTAL(109,F3:F35)</f>
+        <v>224.82000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1"/>
-    <hyperlink ref="E8" r:id="rId2" location=".VNd5I_mG8nM"/>
-    <hyperlink ref="E13" r:id="rId3" location=".VNd6mPmG8nM"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E10" r:id="rId8"/>
-    <hyperlink ref="E14" r:id="rId9" location=".VOWh7fmG8nM"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2" location=".VNd5I_mG8nM"/>
+    <hyperlink ref="E12" r:id="rId3" location=".VNd6mPmG8nM"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="E5" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9" location=".VOWh7fmG8nM"/>
+    <hyperlink ref="E16" r:id="rId10"/>
+    <hyperlink ref="E17" r:id="rId11"/>
+    <hyperlink ref="E19" r:id="rId12"/>
+    <hyperlink ref="E20" r:id="rId13"/>
+    <hyperlink ref="E22" r:id="rId14"/>
+    <hyperlink ref="E23" r:id="rId15"/>
+    <hyperlink ref="E25" r:id="rId16"/>
+    <hyperlink ref="E26" r:id="rId17"/>
+    <hyperlink ref="E27" r:id="rId18"/>
+    <hyperlink ref="E18" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E30" r:id="rId21" location=".VNd5I_mG8nM"/>
+    <hyperlink ref="E31" r:id="rId22"/>
+    <hyperlink ref="E32" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24" location=".VNd6mPmG8nM"/>
+    <hyperlink ref="E35" r:id="rId25" location=".VNd9svmG8nM"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="E10" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId10"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/SmartKitchen-Emdebbed System/Documents/Parts and needs/Farnel-list.xlsx
+++ b/SmartKitchen-Emdebbed System/Documents/Parts and needs/Farnel-list.xlsx
@@ -305,7 +305,7 @@
     <t xml:space="preserve">To read products </t>
   </si>
   <si>
-    <t>Component list:</t>
+    <t xml:space="preserve"> Supplementary component list:</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -540,6 +540,32 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -565,8 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -585,6 +609,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -994,7 +1020,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F36" sqref="A2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,17 +1034,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1033,7 +1059,7 @@
       <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1678,7 +1704,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1698,26 +1724,26 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="15" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="16">
         <f>SUBTOTAL(109,D3:D35)</f>
         <v>314</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <f>SUBTOTAL(109,F3:F35)</f>
         <v>224.82000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
